--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Research\deepbrain\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB9979-CDBA-4067-A35D-68F529A6E847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC4EB3-8A6D-4200-96DA-25ADA967D56B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="673" firstSheet="4" activeTab="9" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="673" firstSheet="7" activeTab="12" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -22,8 +22,15 @@
     <sheet name="epimap_Exp6" sheetId="2" r:id="rId7"/>
     <sheet name="epimap_Exp7" sheetId="1" r:id="rId8"/>
     <sheet name="epimap_Exp8" sheetId="10" r:id="rId9"/>
-    <sheet name="summary" sheetId="8" r:id="rId10"/>
+    <sheet name="epimap_ExpChrome9" sheetId="11" r:id="rId10"/>
+    <sheet name="epimap_ExpChrome19" sheetId="12" r:id="rId11"/>
+    <sheet name="summary" sheetId="8" r:id="rId12"/>
+    <sheet name="summaryCr" sheetId="13" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
   <si>
     <t>trainLoss</t>
   </si>
@@ -148,6 +155,15 @@
   </si>
   <si>
     <t>exp9</t>
+  </si>
+  <si>
+    <t>cr_01 (exp7)</t>
+  </si>
+  <si>
+    <t>cr_09 (exp7)</t>
+  </si>
+  <si>
+    <t>cr_19 (exp7)</t>
   </si>
 </sst>
 </file>
@@ -4748,6 +4764,2831 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainingVsTesting metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.40699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F07-49BF-819F-7560A03A0261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F07-49BF-819F-7560A03A0261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F07-49BF-819F-7560A03A0261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F07-49BF-819F-7560A03A0261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="390869472"/>
+        <c:axId val="390862256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390869472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390862256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390862256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390869472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD35-42AA-8ABF-71F8719BB166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD35-42AA-8ABF-71F8719BB166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD35-42AA-8ABF-71F8719BB166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome9!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome9!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BD35-42AA-8ABF-71F8719BB166}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="390877672"/>
+        <c:axId val="390878984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390877672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390878984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390878984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390877672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainngVsTesting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-182E-463E-91E1-4B318DB95F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-182E-463E-91E1-4B318DB95F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-182E-463E-91E1-4B318DB95F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-182E-463E-91E1-4B318DB95F4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="390866192"/>
+        <c:axId val="390866848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390866192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390866848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390866848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390866192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_Exp1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_Exp1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.3705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADD5-4C97-A136-000A1781DE64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_Exp1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_Exp1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADD5-4C97-A136-000A1781DE64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_Exp1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_Exp1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADD5-4C97-A136-000A1781DE64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_Exp1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_Exp1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.75749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76849999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77949999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ADD5-4C97-A136-000A1781DE64}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448210560"/>
+        <c:axId val="448203672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448210560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448203672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448203672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448210560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing Metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32A0-44A5-BAF8-965EC20B9E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32A0-44A5-BAF8-965EC20B9E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32A0-44A5-BAF8-965EC20B9E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimap_ExpChrome19!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimap_ExpChrome19!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-32A0-44A5-BAF8-965EC20B9E84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="390861272"/>
+        <c:axId val="390865536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390861272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390865536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390865536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390861272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -4817,6 +7658,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>summary!$B$2:$B$10</c:f>
@@ -4883,6 +7759,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>summary!$C$2:$C$10</c:f>
@@ -4949,6 +7860,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>summary!$D$2:$D$10</c:f>
@@ -5015,6 +7961,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>summary!$E$2:$E$10</c:f>
@@ -5081,6 +8062,41 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summary!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>exp2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>exp3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>exp4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>exp5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>exp6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>exp7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>exp8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>summary!$G$2:$G$10</c:f>
@@ -5119,7 +8135,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-45C1-4839-B60E-F3791F2E1990}"/>
+              <c16:uniqueId val="{00000000-5177-4EBD-B049-E4C9016FD5C6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5143,6 +8159,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5325,7 +8342,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5409,6 +8426,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5475,6 +8503,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -5541,6 +8580,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -5607,6 +8657,17 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -5673,6 +8734,17 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -5739,6 +8811,17 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -5805,6 +8888,17 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -5873,6 +8967,17 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -5941,6 +9046,17 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>exp9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
@@ -6209,7 +9325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6244,8 +9360,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Testing Metrics</a:t>
+              <a:t>Exp7 metrics per Chromosome</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6281,78 +9402,84 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>epimap_Exp1!$H$1</c:f>
+              <c:f>summaryCr!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testLoss</c:v>
+                  <c:v>cr_01 (exp7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>epimap_Exp1!$H$2:$H$11</c:f>
+              <c:f>(summaryCr!$B$2:$E$2,summaryCr!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3705</c:v>
+                  <c:v>0.47099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35899999999999999</c:v>
+                  <c:v>0.86699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3795</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39750000000000002</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.43049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.434</c:v>
+                  <c:v>0.77300000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADD5-4C97-A136-000A1781DE64}"/>
+              <c16:uniqueId val="{00000000-F5D4-42F3-B945-729CFAE380D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6361,70 +9488,75 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>epimap_Exp1!$J$1</c:f>
+              <c:f>summaryCr!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testUncer</c:v>
+                  <c:v>cr_09 (exp7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>epimap_Exp1!$J$2:$J$11</c:f>
+              <c:f>(summaryCr!$B$3:$E$3,summaryCr!$G$3)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.16200000000000001</c:v>
+                  <c:v>0.497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13800000000000001</c:v>
+                  <c:v>0.85199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1305</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.108</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8500000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.75900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADD5-4C97-A136-000A1781DE64}"/>
+              <c16:uniqueId val="{00000001-F5D4-42F3-B945-729CFAE380D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6433,142 +9565,75 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>epimap_Exp1!$K$1</c:f>
+              <c:f>summaryCr!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testTpr</c:v>
+                  <c:v>cr_19 (exp7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>epimap_Exp1!$K$2:$K$11</c:f>
+              <c:f>(summaryCr!$B$4:$E$4,summaryCr!$G$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4945</c:v>
+                  <c:v>0.55500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48849999999999999</c:v>
+                  <c:v>0.70699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59599999999999997</c:v>
+                  <c:v>0.80600000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ADD5-4C97-A136-000A1781DE64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>epimap_Exp1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testRoc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>epimap_Exp1!$M$2:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.75749999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76849999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76949999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77949999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77849999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77900000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ADD5-4C97-A136-000A1781DE64}"/>
+              <c16:uniqueId val="{00000002-F5D4-42F3-B945-729CFAE380D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6580,17 +9645,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="448210560"/>
-        <c:axId val="448203672"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="390862256"/>
+        <c:axId val="390868816"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="448210560"/>
+        <c:axId val="390862256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6627,7 +9694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448203672"/>
+        <c:crossAx val="390868816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6635,7 +9702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448203672"/>
+        <c:axId val="390868816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6686,7 +9753,616 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448210560"/>
+        <c:crossAx val="390862256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Exp7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chromosome performance per metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="390862256"/>
+        <c:axId val="390868816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="390862256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390868816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390862256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11121,7 +14797,247 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15570,7 +19486,7 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15678,6 +19594,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15688,6 +19609,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -15719,6 +19645,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16073,7 +20002,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16181,6 +20110,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -16191,6 +20125,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -16222,6 +20161,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16575,7 +20517,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16738,6 +20680,3050 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20762,6 +27748,243 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8FDF5B-12E7-427B-8376-048489F8F653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7155991-DC5F-4186-9784-0FCB509B597E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D69E455-9F96-490B-B5ED-24E46D2B9276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094414E4-7971-4920-94FA-2422FB40711D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655DAFB7-1393-461D-95C9-968DF7F6D78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4CC187-D8F9-4BEA-A29D-FD33BA353068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DCDD08-736F-4C8B-B198-2C800CBF0B13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21356,26 +28579,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094414E4-7971-4920-94FA-2422FB40711D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0107EC5-1639-4309-82B1-70D2C00FB644}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -21392,26 +28617,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655DAFB7-1393-461D-95C9-968DF7F6D78C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3240BBE4-08D5-4ECF-B25B-2449B8696492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -21426,6 +28653,474 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="epimap_ExpChrome9_Processed"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>trainLoss</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>trainTpr</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>testLoss</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>testUncer</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>testTpr</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>testRoc</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.40699999999999997</v>
+          </cell>
+          <cell r="E2">
+            <v>0.39500000000000002</v>
+          </cell>
+          <cell r="H2">
+            <v>0.439</v>
+          </cell>
+          <cell r="J2">
+            <v>0.13400000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>0.48699999999999999</v>
+          </cell>
+          <cell r="M2">
+            <v>0.81399999999999995</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.379</v>
+          </cell>
+          <cell r="E3">
+            <v>0.45700000000000002</v>
+          </cell>
+          <cell r="H3">
+            <v>0.44400000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>0.11600000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>0.57599999999999996</v>
+          </cell>
+          <cell r="M3">
+            <v>0.82899999999999996</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.36399999999999999</v>
+          </cell>
+          <cell r="E4">
+            <v>0.50600000000000001</v>
+          </cell>
+          <cell r="H4">
+            <v>0.439</v>
+          </cell>
+          <cell r="J4">
+            <v>0.129</v>
+          </cell>
+          <cell r="K4">
+            <v>0.59099999999999997</v>
+          </cell>
+          <cell r="M4">
+            <v>0.81200000000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.34</v>
+          </cell>
+          <cell r="E5">
+            <v>0.55100000000000005</v>
+          </cell>
+          <cell r="H5">
+            <v>0.46700000000000003</v>
+          </cell>
+          <cell r="J5">
+            <v>0.13400000000000001</v>
+          </cell>
+          <cell r="K5">
+            <v>0.64400000000000002</v>
+          </cell>
+          <cell r="M5">
+            <v>0.80300000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.309</v>
+          </cell>
+          <cell r="E6">
+            <v>0.60499999999999998</v>
+          </cell>
+          <cell r="H6">
+            <v>0.42399999999999999</v>
+          </cell>
+          <cell r="J6">
+            <v>0.12</v>
+          </cell>
+          <cell r="K6">
+            <v>0.58399999999999996</v>
+          </cell>
+          <cell r="M6">
+            <v>0.76300000000000001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.28299999999999997</v>
+          </cell>
+          <cell r="E7">
+            <v>0.65100000000000002</v>
+          </cell>
+          <cell r="H7">
+            <v>0.45</v>
+          </cell>
+          <cell r="J7">
+            <v>0.111</v>
+          </cell>
+          <cell r="K7">
+            <v>0.61899999999999999</v>
+          </cell>
+          <cell r="M7">
+            <v>0.76700000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.26700000000000002</v>
+          </cell>
+          <cell r="E8">
+            <v>0.68</v>
+          </cell>
+          <cell r="H8">
+            <v>0.495</v>
+          </cell>
+          <cell r="J8">
+            <v>0.10199999999999999</v>
+          </cell>
+          <cell r="K8">
+            <v>0.61099999999999999</v>
+          </cell>
+          <cell r="M8">
+            <v>0.75900000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.255</v>
+          </cell>
+          <cell r="E9">
+            <v>0.7</v>
+          </cell>
+          <cell r="H9">
+            <v>0.495</v>
+          </cell>
+          <cell r="J9">
+            <v>9.9000000000000005E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>0.626</v>
+          </cell>
+          <cell r="M9">
+            <v>0.75700000000000001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.25</v>
+          </cell>
+          <cell r="E10">
+            <v>0.70599999999999996</v>
+          </cell>
+          <cell r="H10">
+            <v>0.498</v>
+          </cell>
+          <cell r="J10">
+            <v>0.10199999999999999</v>
+          </cell>
+          <cell r="K10">
+            <v>0.64100000000000001</v>
+          </cell>
+          <cell r="M10">
+            <v>0.75900000000000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.249</v>
+          </cell>
+          <cell r="E11">
+            <v>0.70599999999999996</v>
+          </cell>
+          <cell r="H11">
+            <v>0.497</v>
+          </cell>
+          <cell r="J11">
+            <v>0.10199999999999999</v>
+          </cell>
+          <cell r="K11">
+            <v>0.64</v>
+          </cell>
+          <cell r="M11">
+            <v>0.75900000000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="epimap_ExpChrome19_Processed"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>trainLoss</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>trainTpr</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>testLoss</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>testUncer</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>testTpr</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>testRoc</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.40500000000000003</v>
+          </cell>
+          <cell r="E2">
+            <v>0.379</v>
+          </cell>
+          <cell r="H2">
+            <v>0.50700000000000001</v>
+          </cell>
+          <cell r="J2">
+            <v>0.19400000000000001</v>
+          </cell>
+          <cell r="K2">
+            <v>0.66300000000000003</v>
+          </cell>
+          <cell r="M2">
+            <v>0.80100000000000005</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.376</v>
+          </cell>
+          <cell r="E3">
+            <v>0.44900000000000001</v>
+          </cell>
+          <cell r="H3">
+            <v>0.45100000000000001</v>
+          </cell>
+          <cell r="J3">
+            <v>0.19600000000000001</v>
+          </cell>
+          <cell r="K3">
+            <v>0.58099999999999996</v>
+          </cell>
+          <cell r="M3">
+            <v>0.70399999999999996</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.36499999999999999</v>
+          </cell>
+          <cell r="E4">
+            <v>0.49199999999999999</v>
+          </cell>
+          <cell r="H4">
+            <v>0.437</v>
+          </cell>
+          <cell r="J4">
+            <v>0.14499999999999999</v>
+          </cell>
+          <cell r="K4">
+            <v>0.625</v>
+          </cell>
+          <cell r="M4">
+            <v>0.81499999999999995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.34100000000000003</v>
+          </cell>
+          <cell r="E5">
+            <v>0.53800000000000003</v>
+          </cell>
+          <cell r="H5">
+            <v>0.438</v>
+          </cell>
+          <cell r="J5">
+            <v>0.13100000000000001</v>
+          </cell>
+          <cell r="K5">
+            <v>0.48899999999999999</v>
+          </cell>
+          <cell r="M5">
+            <v>0.69699999999999995</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.308</v>
+          </cell>
+          <cell r="E6">
+            <v>0.59699999999999998</v>
+          </cell>
+          <cell r="H6">
+            <v>0.5</v>
+          </cell>
+          <cell r="J6">
+            <v>0.122</v>
+          </cell>
+          <cell r="K6">
+            <v>0.625</v>
+          </cell>
+          <cell r="M6">
+            <v>0.79900000000000004</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.28299999999999997</v>
+          </cell>
+          <cell r="E7">
+            <v>0.64600000000000002</v>
+          </cell>
+          <cell r="H7">
+            <v>0.54400000000000004</v>
+          </cell>
+          <cell r="J7">
+            <v>0.121</v>
+          </cell>
+          <cell r="K7">
+            <v>0.75</v>
+          </cell>
+          <cell r="M7">
+            <v>0.81899999999999995</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.26600000000000001</v>
+          </cell>
+          <cell r="E8">
+            <v>0.67400000000000004</v>
+          </cell>
+          <cell r="H8">
+            <v>0.53300000000000003</v>
+          </cell>
+          <cell r="J8">
+            <v>0.106</v>
+          </cell>
+          <cell r="K8">
+            <v>0.71499999999999997</v>
+          </cell>
+          <cell r="M8">
+            <v>0.80400000000000005</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.255</v>
+          </cell>
+          <cell r="E9">
+            <v>0.69099999999999995</v>
+          </cell>
+          <cell r="H9">
+            <v>0.56299999999999994</v>
+          </cell>
+          <cell r="J9">
+            <v>0.106</v>
+          </cell>
+          <cell r="K9">
+            <v>0.70899999999999996</v>
+          </cell>
+          <cell r="M9">
+            <v>0.80500000000000005</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.254</v>
+          </cell>
+          <cell r="E10">
+            <v>0.69899999999999995</v>
+          </cell>
+          <cell r="H10">
+            <v>0.55200000000000005</v>
+          </cell>
+          <cell r="J10">
+            <v>0.10199999999999999</v>
+          </cell>
+          <cell r="K10">
+            <v>0.70799999999999996</v>
+          </cell>
+          <cell r="M10">
+            <v>0.80500000000000005</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.25</v>
+          </cell>
+          <cell r="E11">
+            <v>0.70499999999999996</v>
+          </cell>
+          <cell r="H11">
+            <v>0.55500000000000005</v>
+          </cell>
+          <cell r="J11">
+            <v>0.10100000000000001</v>
+          </cell>
+          <cell r="K11">
+            <v>0.70699999999999996</v>
+          </cell>
+          <cell r="M11">
+            <v>0.80600000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21876,11 +29571,939 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1838774-DB5D-47F0-8866-3B7F106DBC71}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.873</v>
+      </c>
+      <c r="D2">
+        <v>0.159</v>
+      </c>
+      <c r="E2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.78</v>
+      </c>
+      <c r="H2">
+        <v>0.439</v>
+      </c>
+      <c r="I2">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.379</v>
+      </c>
+      <c r="C3">
+        <v>0.879</v>
+      </c>
+      <c r="D3">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.877</v>
+      </c>
+      <c r="J3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.439</v>
+      </c>
+      <c r="I4">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.129</v>
+      </c>
+      <c r="K4">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M4">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.34</v>
+      </c>
+      <c r="C5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.872</v>
+      </c>
+      <c r="H5">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.871</v>
+      </c>
+      <c r="M5">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.309</v>
+      </c>
+      <c r="C6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.104</v>
+      </c>
+      <c r="E6">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.12</v>
+      </c>
+      <c r="K6">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.76300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.45</v>
+      </c>
+      <c r="I7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.111</v>
+      </c>
+      <c r="K7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.879</v>
+      </c>
+      <c r="M7">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="D8">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.68</v>
+      </c>
+      <c r="F8">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.93</v>
+      </c>
+      <c r="H8">
+        <v>0.495</v>
+      </c>
+      <c r="I8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.875</v>
+      </c>
+      <c r="M8">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.255</v>
+      </c>
+      <c r="C9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H9">
+        <v>0.495</v>
+      </c>
+      <c r="I9">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="J9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.626</v>
+      </c>
+      <c r="L9">
+        <v>0.876</v>
+      </c>
+      <c r="M9">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D10">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.498</v>
+      </c>
+      <c r="I10">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.871</v>
+      </c>
+      <c r="M10">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.249</v>
+      </c>
+      <c r="C11">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.497</v>
+      </c>
+      <c r="I11">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.64</v>
+      </c>
+      <c r="L11">
+        <v>0.873</v>
+      </c>
+      <c r="M11">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7114D2A7-0AFD-4F0F-9E78-111C376959CE}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.871</v>
+      </c>
+      <c r="D2">
+        <v>0.158</v>
+      </c>
+      <c r="E2">
+        <v>0.379</v>
+      </c>
+      <c r="F2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="G2">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.376</v>
+      </c>
+      <c r="C3">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G3">
+        <v>0.82</v>
+      </c>
+      <c r="H3">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.437</v>
+      </c>
+      <c r="I4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.625</v>
+      </c>
+      <c r="L4">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.874</v>
+      </c>
+      <c r="H5">
+        <v>0.438</v>
+      </c>
+      <c r="I5">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.308</v>
+      </c>
+      <c r="C6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.105</v>
+      </c>
+      <c r="E6">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G6">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.122</v>
+      </c>
+      <c r="K6">
+        <v>0.625</v>
+      </c>
+      <c r="L6">
+        <v>0.871</v>
+      </c>
+      <c r="M6">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="C7">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="J7">
+        <v>0.121</v>
+      </c>
+      <c r="K7">
+        <v>0.75</v>
+      </c>
+      <c r="L7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D8">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H8">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="J8">
+        <v>0.106</v>
+      </c>
+      <c r="K8">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L8">
+        <v>0.82</v>
+      </c>
+      <c r="M8">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.255</v>
+      </c>
+      <c r="C9">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D9">
+        <v>0.08</v>
+      </c>
+      <c r="E9">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="I9">
+        <v>0.82</v>
+      </c>
+      <c r="J9">
+        <v>0.106</v>
+      </c>
+      <c r="K9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="M9">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.254</v>
+      </c>
+      <c r="C10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.81</v>
+      </c>
+      <c r="M10">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D11">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F11">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M11">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026925B1-A343-4BF5-BE06-4C4D36A4A9CD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22110,6 +30733,114 @@
       </c>
       <c r="G10">
         <v>0.72899999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C1032D-85DB-4E44-B262-2AFD343E1AD9}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C2">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D2">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.52</v>
+      </c>
+      <c r="F2">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0.497</v>
+      </c>
+      <c r="C3">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.64</v>
+      </c>
+      <c r="F3">
+        <v>0.873</v>
+      </c>
+      <c r="G3">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="F4">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G4">
+        <v>0.80600000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Research\deepbrain\results\separate\epimap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECC4EB3-8A6D-4200-96DA-25ADA967D56B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D3ABE-7360-4C76-AAE2-48F54BF0633F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="673" firstSheet="7" activeTab="12" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="7" activeTab="15" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -24,12 +24,15 @@
     <sheet name="epimap_Exp8" sheetId="10" r:id="rId9"/>
     <sheet name="epimap_ExpChrome9" sheetId="11" r:id="rId10"/>
     <sheet name="epimap_ExpChrome19" sheetId="12" r:id="rId11"/>
-    <sheet name="summary" sheetId="8" r:id="rId12"/>
-    <sheet name="summaryCr" sheetId="13" r:id="rId13"/>
+    <sheet name="epimapDeepSea" sheetId="14" r:id="rId12"/>
+    <sheet name="epimapDeepSeaChrome09" sheetId="15" r:id="rId13"/>
+    <sheet name="summary" sheetId="8" r:id="rId14"/>
+    <sheet name="summaryCr" sheetId="13" r:id="rId15"/>
+    <sheet name="summaryComp" sheetId="16" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
   <si>
     <t>trainLoss</t>
   </si>
@@ -165,13 +168,34 @@
   <si>
     <t>cr_19 (exp7)</t>
   </si>
+  <si>
+    <t>DeepSea</t>
+  </si>
+  <si>
+    <t>deepS_cr01</t>
+  </si>
+  <si>
+    <t>deepS_cr09</t>
+  </si>
+  <si>
+    <t>deepS_cr19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,8 +223,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7589,6 +7614,2272 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainingVsTesting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DFE-4DCD-AB3F-E1BCD2AF45DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4DFE-4DCD-AB3F-E1BCD2AF45DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DFE-4DCD-AB3F-E1BCD2AF45DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4DFE-4DCD-AB3F-E1BCD2AF45DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="24977519"/>
+        <c:axId val="2123807871"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="24977519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123807871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123807871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24977519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.39950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4E1-4C67-9102-294B5D406BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1925</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F4E1-4C67-9102-294B5D406BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35849999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F4E1-4C67-9102-294B5D406BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSea!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSea!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69449999999999901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74449999999999905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F4E1-4C67-9102-294B5D406BD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2136664447"/>
+        <c:axId val="2123800799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2136664447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123800799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123800799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136664447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainingVsTesting metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7671-41E0-970B-97A44D74E2B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7671-41E0-970B-97A44D74E2B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7671-41E0-970B-97A44D74E2B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7671-41E0-970B-97A44D74E2B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="104772879"/>
+        <c:axId val="2137072847"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104772879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137072847"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137072847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104772879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66C0-4A65-9A3B-619E229B793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66C0-4A65-9A3B-619E229B793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66C0-4A65-9A3B-619E229B793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome09!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome09!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-66C0-4A65-9A3B-619E229B793A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2136674447"/>
+        <c:axId val="2123808703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2136674447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2123808703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123808703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136674447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -8342,7 +10633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9325,7 +11616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9840,7 +12131,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15077,6 +17368,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -22066,7 +24517,7 @@
 </file>
 
 <file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22174,6 +24625,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -22184,6 +24640,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -22215,6 +24676,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22569,7 +25033,7 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22677,6 +25141,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -22687,6 +25156,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -22718,6 +25192,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23072,7 +25549,7 @@
 </file>
 
 <file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23180,6 +25657,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23190,6 +25672,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -23221,6 +25708,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23575,6 +26065,2031 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -27855,6 +32370,168 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490B1A6E-8297-48C0-90CB-31140565D9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2019553B-3E72-4D85-B62E-F70984E0BE38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66064F84-8870-40A4-89DD-2E21DEAF8BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4CFB2B-8C3D-48DC-837F-C597CE9DA2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -27928,7 +32605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -28659,7 +33336,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="epimap_ExpChrome9_Processed"/>
+      <sheetName val="epimapDeepSea_Processed"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -28685,202 +33362,202 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>0.40699999999999997</v>
+            <v>0.42899999999999999</v>
           </cell>
           <cell r="E2">
-            <v>0.39500000000000002</v>
+            <v>0.28199999999999997</v>
           </cell>
           <cell r="H2">
-            <v>0.439</v>
+            <v>0.39950000000000002</v>
           </cell>
           <cell r="J2">
-            <v>0.13400000000000001</v>
+            <v>0.1925</v>
           </cell>
           <cell r="K2">
-            <v>0.48699999999999999</v>
+            <v>0.33350000000000002</v>
           </cell>
           <cell r="M2">
-            <v>0.81399999999999995</v>
+            <v>0.69449999999999901</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.379</v>
+            <v>0.41</v>
           </cell>
           <cell r="E3">
-            <v>0.45700000000000002</v>
+            <v>0.33</v>
           </cell>
           <cell r="H3">
-            <v>0.44400000000000001</v>
+            <v>0.39300000000000002</v>
           </cell>
           <cell r="J3">
-            <v>0.11600000000000001</v>
+            <v>0.161</v>
           </cell>
           <cell r="K3">
-            <v>0.57599999999999996</v>
+            <v>0.32800000000000001</v>
           </cell>
           <cell r="M3">
-            <v>0.82899999999999996</v>
+            <v>0.72550000000000003</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.36399999999999999</v>
+            <v>0.40799999999999997</v>
           </cell>
           <cell r="E4">
-            <v>0.50600000000000001</v>
+            <v>0.32900000000000001</v>
           </cell>
           <cell r="H4">
-            <v>0.439</v>
+            <v>0.38950000000000001</v>
           </cell>
           <cell r="J4">
-            <v>0.129</v>
+            <v>0.159</v>
           </cell>
           <cell r="K4">
-            <v>0.59099999999999997</v>
+            <v>0.3085</v>
           </cell>
           <cell r="M4">
-            <v>0.81200000000000006</v>
+            <v>0.73199999999999998</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.34</v>
+            <v>0.40600000000000003</v>
           </cell>
           <cell r="E5">
-            <v>0.55100000000000005</v>
+            <v>0.33200000000000002</v>
           </cell>
           <cell r="H5">
-            <v>0.46700000000000003</v>
+            <v>0.38900000000000001</v>
           </cell>
           <cell r="J5">
-            <v>0.13400000000000001</v>
+            <v>0.14449999999999999</v>
           </cell>
           <cell r="K5">
-            <v>0.64400000000000002</v>
+            <v>0.33200000000000002</v>
           </cell>
           <cell r="M5">
-            <v>0.80300000000000005</v>
+            <v>0.73699999999999999</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.309</v>
+            <v>0.40300000000000002</v>
           </cell>
           <cell r="E6">
-            <v>0.60499999999999998</v>
+            <v>0.34599999999999997</v>
           </cell>
           <cell r="H6">
-            <v>0.42399999999999999</v>
+            <v>0.38850000000000001</v>
           </cell>
           <cell r="J6">
-            <v>0.12</v>
+            <v>0.16950000000000001</v>
           </cell>
           <cell r="K6">
-            <v>0.58399999999999996</v>
+            <v>0.35799999999999998</v>
           </cell>
           <cell r="M6">
-            <v>0.76300000000000001</v>
+            <v>0.74099999999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.28299999999999997</v>
+            <v>0.40400000000000003</v>
           </cell>
           <cell r="E7">
-            <v>0.65100000000000002</v>
+            <v>0.35</v>
           </cell>
           <cell r="H7">
-            <v>0.45</v>
+            <v>0.38650000000000001</v>
           </cell>
           <cell r="J7">
-            <v>0.111</v>
+            <v>0.1615</v>
           </cell>
           <cell r="K7">
-            <v>0.61899999999999999</v>
+            <v>0.34899999999999998</v>
           </cell>
           <cell r="M7">
-            <v>0.76700000000000002</v>
+            <v>0.74449999999999905</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.26700000000000002</v>
+            <v>0.39800000000000002</v>
           </cell>
           <cell r="E8">
-            <v>0.68</v>
+            <v>0.35299999999999998</v>
           </cell>
           <cell r="H8">
-            <v>0.495</v>
+            <v>0.38800000000000001</v>
           </cell>
           <cell r="J8">
-            <v>0.10199999999999999</v>
+            <v>0.159</v>
           </cell>
           <cell r="K8">
-            <v>0.61099999999999999</v>
+            <v>0.35449999999999998</v>
           </cell>
           <cell r="M8">
-            <v>0.75900000000000001</v>
+            <v>0.74350000000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.255</v>
+            <v>0.40200000000000002</v>
           </cell>
           <cell r="E9">
-            <v>0.7</v>
+            <v>0.36099999999999999</v>
           </cell>
           <cell r="H9">
-            <v>0.495</v>
+            <v>0.38850000000000001</v>
           </cell>
           <cell r="J9">
-            <v>9.9000000000000005E-2</v>
+            <v>0.161</v>
           </cell>
           <cell r="K9">
-            <v>0.626</v>
+            <v>0.35449999999999998</v>
           </cell>
           <cell r="M9">
-            <v>0.75700000000000001</v>
+            <v>0.74399999999999999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.25</v>
+            <v>0.39800000000000002</v>
           </cell>
           <cell r="E10">
-            <v>0.70599999999999996</v>
+            <v>0.35499999999999998</v>
           </cell>
           <cell r="H10">
-            <v>0.498</v>
+            <v>0.38800000000000001</v>
           </cell>
           <cell r="J10">
-            <v>0.10199999999999999</v>
+            <v>0.16300000000000001</v>
           </cell>
           <cell r="K10">
-            <v>0.64100000000000001</v>
+            <v>0.35499999999999998</v>
           </cell>
           <cell r="M10">
-            <v>0.75900000000000001</v>
+            <v>0.74350000000000005</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>0.249</v>
+            <v>0.39900000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.70599999999999996</v>
+            <v>0.35699999999999998</v>
           </cell>
           <cell r="H11">
-            <v>0.497</v>
+            <v>0.38800000000000001</v>
           </cell>
           <cell r="J11">
-            <v>0.10199999999999999</v>
+            <v>0.16450000000000001</v>
           </cell>
           <cell r="K11">
-            <v>0.64</v>
+            <v>0.35849999999999999</v>
           </cell>
           <cell r="M11">
-            <v>0.75900000000000001</v>
+            <v>0.74350000000000005</v>
           </cell>
         </row>
       </sheetData>
@@ -28893,7 +33570,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="epimap_ExpChrome19_Processed"/>
+      <sheetName val="epimapDeepSeaChrome09_Processed"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -28919,202 +33596,202 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>0.40500000000000003</v>
+            <v>0.432</v>
           </cell>
           <cell r="E2">
-            <v>0.379</v>
+            <v>0.27900000000000003</v>
           </cell>
           <cell r="H2">
-            <v>0.50700000000000001</v>
+            <v>0.42</v>
           </cell>
           <cell r="J2">
-            <v>0.19400000000000001</v>
+            <v>0.154</v>
           </cell>
           <cell r="K2">
-            <v>0.66300000000000003</v>
+            <v>0.33450000000000002</v>
           </cell>
           <cell r="M2">
-            <v>0.80100000000000005</v>
+            <v>0.76700000000000002</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.376</v>
+            <v>0.41399999999999998</v>
           </cell>
           <cell r="E3">
-            <v>0.44900000000000001</v>
+            <v>0.33100000000000002</v>
           </cell>
           <cell r="H3">
-            <v>0.45100000000000001</v>
+            <v>0.41949999999999998</v>
           </cell>
           <cell r="J3">
-            <v>0.19600000000000001</v>
+            <v>0.17499999999999999</v>
           </cell>
           <cell r="K3">
-            <v>0.58099999999999996</v>
+            <v>0.35949999999999999</v>
           </cell>
           <cell r="M3">
-            <v>0.70399999999999996</v>
+            <v>0.77249999999999996</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>0.36499999999999999</v>
+            <v>0.40799999999999997</v>
           </cell>
           <cell r="E4">
-            <v>0.49199999999999999</v>
+            <v>0.34250000000000003</v>
           </cell>
           <cell r="H4">
-            <v>0.437</v>
+            <v>0.42299999999999999</v>
           </cell>
           <cell r="J4">
-            <v>0.14499999999999999</v>
+            <v>0.14849999999999999</v>
           </cell>
           <cell r="K4">
-            <v>0.625</v>
+            <v>0.34499999999999997</v>
           </cell>
           <cell r="M4">
-            <v>0.81499999999999995</v>
+            <v>0.76800000000000002</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.34100000000000003</v>
+            <v>0.40500000000000003</v>
           </cell>
           <cell r="E5">
-            <v>0.53800000000000003</v>
+            <v>0.34200000000000003</v>
           </cell>
           <cell r="H5">
-            <v>0.438</v>
+            <v>0.41899999999999998</v>
           </cell>
           <cell r="J5">
-            <v>0.13100000000000001</v>
+            <v>0.157</v>
           </cell>
           <cell r="K5">
-            <v>0.48899999999999999</v>
+            <v>0.33900000000000002</v>
           </cell>
           <cell r="M5">
-            <v>0.69699999999999995</v>
+            <v>0.77600000000000002</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.308</v>
+            <v>0.40400000000000003</v>
           </cell>
           <cell r="E6">
-            <v>0.59699999999999998</v>
+            <v>0.35799999999999998</v>
           </cell>
           <cell r="H6">
-            <v>0.5</v>
+            <v>0.41299999999999998</v>
           </cell>
           <cell r="J6">
-            <v>0.122</v>
+            <v>0.152</v>
           </cell>
           <cell r="K6">
-            <v>0.625</v>
+            <v>0.32850000000000001</v>
           </cell>
           <cell r="M6">
-            <v>0.79900000000000004</v>
+            <v>0.78200000000000003</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.28299999999999997</v>
+            <v>0.39900000000000002</v>
           </cell>
           <cell r="E7">
-            <v>0.64600000000000002</v>
+            <v>0.35599999999999998</v>
           </cell>
           <cell r="H7">
-            <v>0.54400000000000004</v>
+            <v>0.42399999999999999</v>
           </cell>
           <cell r="J7">
-            <v>0.121</v>
+            <v>0.14749999999999999</v>
           </cell>
           <cell r="K7">
-            <v>0.75</v>
+            <v>0.35799999999999998</v>
           </cell>
           <cell r="M7">
-            <v>0.81899999999999995</v>
+            <v>0.78200000000000003</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.26600000000000001</v>
+            <v>0.40400000000000003</v>
           </cell>
           <cell r="E8">
-            <v>0.67400000000000004</v>
+            <v>0.36699999999999999</v>
           </cell>
           <cell r="H8">
-            <v>0.53300000000000003</v>
+            <v>0.42599999999999999</v>
           </cell>
           <cell r="J8">
-            <v>0.106</v>
+            <v>0.15</v>
           </cell>
           <cell r="K8">
-            <v>0.71499999999999997</v>
+            <v>0.36799999999999999</v>
           </cell>
           <cell r="M8">
-            <v>0.80400000000000005</v>
+            <v>0.78200000000000003</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.255</v>
+            <v>0.40400000000000003</v>
           </cell>
           <cell r="E9">
-            <v>0.69099999999999995</v>
+            <v>0.35799999999999998</v>
           </cell>
           <cell r="H9">
-            <v>0.56299999999999994</v>
+            <v>0.41899999999999998</v>
           </cell>
           <cell r="J9">
-            <v>0.106</v>
+            <v>0.14599999999999999</v>
           </cell>
           <cell r="K9">
-            <v>0.70899999999999996</v>
+            <v>0.34799999999999998</v>
           </cell>
           <cell r="M9">
-            <v>0.80500000000000005</v>
+            <v>0.78200000000000003</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.254</v>
+            <v>0.40100000000000002</v>
           </cell>
           <cell r="E10">
-            <v>0.69899999999999995</v>
+            <v>0.36449999999999999</v>
           </cell>
           <cell r="H10">
-            <v>0.55200000000000005</v>
+            <v>0.42299999999999999</v>
           </cell>
           <cell r="J10">
-            <v>0.10199999999999999</v>
+            <v>0.152</v>
           </cell>
           <cell r="K10">
-            <v>0.70799999999999996</v>
+            <v>0.36249999999999999</v>
           </cell>
           <cell r="M10">
-            <v>0.80500000000000005</v>
+            <v>0.78149999999999997</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11">
-            <v>0.25</v>
+            <v>0.40300000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.70499999999999996</v>
+            <v>0.36099999999999999</v>
           </cell>
           <cell r="H11">
-            <v>0.55500000000000005</v>
+            <v>0.42099999999999999</v>
           </cell>
           <cell r="J11">
-            <v>0.10100000000000001</v>
+            <v>0.15</v>
           </cell>
           <cell r="K11">
-            <v>0.70699999999999996</v>
+            <v>0.35799999999999998</v>
           </cell>
           <cell r="M11">
-            <v>0.80600000000000005</v>
+            <v>0.78200000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -30499,6 +35176,934 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D86765C-7E97-4793-924C-742CC34DFF08}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.39950000000000002</v>
+      </c>
+      <c r="I2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.1925</v>
+      </c>
+      <c r="K2">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.95849999999999902</v>
+      </c>
+      <c r="M2">
+        <v>0.69449999999999901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.41</v>
+      </c>
+      <c r="C3">
+        <v>0.871</v>
+      </c>
+      <c r="D3">
+        <v>0.157</v>
+      </c>
+      <c r="E3">
+        <v>0.33</v>
+      </c>
+      <c r="F3">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.89349999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.161</v>
+      </c>
+      <c r="K3">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.96449999999999902</v>
+      </c>
+      <c r="M3">
+        <v>0.72550000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.875</v>
+      </c>
+      <c r="D4">
+        <v>0.161</v>
+      </c>
+      <c r="E4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="J4">
+        <v>0.159</v>
+      </c>
+      <c r="K4">
+        <v>0.3085</v>
+      </c>
+      <c r="L4">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="M4">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.871</v>
+      </c>
+      <c r="D5">
+        <v>0.159</v>
+      </c>
+      <c r="E5">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.77</v>
+      </c>
+      <c r="H5">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M5">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.875</v>
+      </c>
+      <c r="D6">
+        <v>0.159</v>
+      </c>
+      <c r="E6">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.77</v>
+      </c>
+      <c r="H6">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.74099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.873</v>
+      </c>
+      <c r="D7">
+        <v>0.157</v>
+      </c>
+      <c r="E7">
+        <v>0.35</v>
+      </c>
+      <c r="F7">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.38650000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.89</v>
+      </c>
+      <c r="J7">
+        <v>0.1615</v>
+      </c>
+      <c r="K7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.74449999999999905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.875</v>
+      </c>
+      <c r="D8">
+        <v>0.158</v>
+      </c>
+      <c r="E8">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.78</v>
+      </c>
+      <c r="H8">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.159</v>
+      </c>
+      <c r="K8">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.873</v>
+      </c>
+      <c r="D9">
+        <v>0.158</v>
+      </c>
+      <c r="E9">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.78</v>
+      </c>
+      <c r="H9">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.161</v>
+      </c>
+      <c r="K9">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.96049999999999902</v>
+      </c>
+      <c r="M9">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.875</v>
+      </c>
+      <c r="D10">
+        <v>0.157</v>
+      </c>
+      <c r="E10">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.96</v>
+      </c>
+      <c r="M10">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.875</v>
+      </c>
+      <c r="D11">
+        <v>0.158</v>
+      </c>
+      <c r="E11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.95849999999999902</v>
+      </c>
+      <c r="M11">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E62518B-D839-49F6-B2F5-AD5D6F932400}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.432</v>
+      </c>
+      <c r="C2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.1605</v>
+      </c>
+      <c r="E2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.96</v>
+      </c>
+      <c r="G2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.42</v>
+      </c>
+      <c r="I2">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J2">
+        <v>0.154</v>
+      </c>
+      <c r="K2">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="M2">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.41949999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.96</v>
+      </c>
+      <c r="M3">
+        <v>0.77249999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="C4">
+        <v>0.871</v>
+      </c>
+      <c r="D4">
+        <v>0.16</v>
+      </c>
+      <c r="E4">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.77</v>
+      </c>
+      <c r="H4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.871</v>
+      </c>
+      <c r="D5">
+        <v>0.157</v>
+      </c>
+      <c r="E5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.157</v>
+      </c>
+      <c r="K5">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.871</v>
+      </c>
+      <c r="D6">
+        <v>0.159</v>
+      </c>
+      <c r="E6">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.152</v>
+      </c>
+      <c r="K6">
+        <v>0.32850000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.875</v>
+      </c>
+      <c r="D7">
+        <v>0.158</v>
+      </c>
+      <c r="E7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M7">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.873</v>
+      </c>
+      <c r="D8">
+        <v>0.157</v>
+      </c>
+      <c r="E8">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H8">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.15</v>
+      </c>
+      <c r="K8">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.871</v>
+      </c>
+      <c r="D9">
+        <v>0.157</v>
+      </c>
+      <c r="E9">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.95</v>
+      </c>
+      <c r="G9">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="M9">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.871</v>
+      </c>
+      <c r="D10">
+        <v>0.158</v>
+      </c>
+      <c r="E10">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.95</v>
+      </c>
+      <c r="G10">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.152</v>
+      </c>
+      <c r="K10">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.95449999999999902</v>
+      </c>
+      <c r="M10">
+        <v>0.78149999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.873</v>
+      </c>
+      <c r="D11">
+        <v>0.158</v>
+      </c>
+      <c r="E11">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.95</v>
+      </c>
+      <c r="G11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.15</v>
+      </c>
+      <c r="K11">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="M11">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026925B1-A343-4BF5-BE06-4C4D36A4A9CD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -30741,12 +36346,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C1032D-85DB-4E44-B262-2AFD343E1AD9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30846,6 +36451,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356B018-0FE6-4F42-9650-4057796C55F9}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.16450000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.95849999999999902</v>
+      </c>
+      <c r="G4">
+        <v>0.74350000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D3ABE-7360-4C76-AAE2-48F54BF0633F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C0BBA-7966-489A-976D-D177F5EB3C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="7" activeTab="15" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="11" activeTab="16" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="epimap_ExpChrome19" sheetId="12" r:id="rId11"/>
     <sheet name="epimapDeepSea" sheetId="14" r:id="rId12"/>
     <sheet name="epimapDeepSeaChrome09" sheetId="15" r:id="rId13"/>
-    <sheet name="summary" sheetId="8" r:id="rId14"/>
-    <sheet name="summaryCr" sheetId="13" r:id="rId15"/>
-    <sheet name="summaryComp" sheetId="16" r:id="rId16"/>
+    <sheet name="epimapDeepSeaChrome19" sheetId="17" r:id="rId14"/>
+    <sheet name="summary" sheetId="8" r:id="rId15"/>
+    <sheet name="summaryCr" sheetId="13" r:id="rId16"/>
+    <sheet name="summaryComp" sheetId="16" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="43">
   <si>
     <t>trainLoss</t>
   </si>
@@ -9880,6 +9880,1139 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TrainingVsTesting metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9529-4BE1-B49A-AA79910E6438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9529-4BE1-B49A-AA79910E6438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9529-4BE1-B49A-AA79910E6438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9529-4BE1-B49A-AA79910E6438}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1101928847"/>
+        <c:axId val="885542095"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1101928847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="885542095"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="885542095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1101928847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Testing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> metrics</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDFE-4331-B4A6-EDBC094DF768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDFE-4331-B4A6-EDBC094DF768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDFE-4331-B4A6-EDBC094DF768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>epimapDeepSeaChrome19!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>epimapDeepSeaChrome19!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EDFE-4331-B4A6-EDBC094DF768}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1314056639"/>
+        <c:axId val="885542511"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1314056639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="885542511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="885542511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1314056639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -9949,6 +11082,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -10050,6 +11201,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -10151,6 +11320,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -10252,6 +11439,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -10353,6 +11558,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summary!$A$2:$A$10</c:f>
@@ -10633,7 +11856,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10738,6 +11961,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -10815,6 +12056,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -10892,6 +12151,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -10969,6 +12246,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11046,6 +12341,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11123,6 +12436,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11202,6 +12533,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11281,6 +12630,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11360,6 +12727,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summary!$B$1:$E$1,summary!$G$1)</c:f>
@@ -11616,7 +13001,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11721,6 +13106,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
@@ -11798,6 +13201,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
@@ -11875,6 +13296,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryCr!$B$1:$E$1,summaryCr!$G$1)</c:f>
@@ -11925,615 +13364,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F5D4-42F3-B945-729CFAE380D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="390862256"/>
-        <c:axId val="390868816"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="390862256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="390868816"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="390868816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="390862256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Exp7</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> chromosome performance per metric</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summaryCr!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testLoss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summaryCr!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>cr_01 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cr_09 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cr_19 (exp7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summaryCr!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.47099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.497</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-346B-4751-863B-364CFB73FBB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summaryCr!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testAcc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summaryCr!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>cr_01 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cr_09 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cr_19 (exp7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summaryCr!$C$2:$C$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.86699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.82799999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-346B-4751-863B-364CFB73FBB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summaryCr!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testUncer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summaryCr!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>cr_01 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cr_09 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cr_19 (exp7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summaryCr!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-346B-4751-863B-364CFB73FBB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summaryCr!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testTpr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summaryCr!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>cr_01 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cr_09 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cr_19 (exp7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summaryCr!$E$2:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70699999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-346B-4751-863B-364CFB73FBB4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>summaryCr!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>testRoc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>summaryCr!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>cr_01 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cr_09 (exp7)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cr_19 (exp7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>summaryCr!$G$2:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.77300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80600000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-346B-4751-863B-364CFB73FBB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13218,6 +14048,1829 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="516684816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Exp7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chromosome performance per metric</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryCr!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryCr!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>cr_01 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cr_09 (exp7)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cr_19 (exp7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryCr!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-346B-4751-863B-364CFB73FBB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="390862256"/>
+        <c:axId val="390868816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="390862256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390868816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390862256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Deepsea performance on different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chromosomes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryComp!$B$4:$E$4,summaryComp!$G$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A8D-45A7-A27F-418BCED1F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryComp!$B$5:$E$5,summaryComp!$G$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A8D-45A7-A27F-418BCED1F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(summaryComp!$B$6:$E$6,summaryComp!$G$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A8D-45A7-A27F-418BCED1F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1326473423"/>
+        <c:axId val="887427935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326473423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887427935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887427935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326473423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Deepsea performance on different</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> chromosomes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryComp!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryComp!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFD5-4176-A49D-02BC23757FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testAcc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryComp!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryComp!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFD5-4176-A49D-02BC23757FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testUncer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryComp!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryComp!$D$4:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFD5-4176-A49D-02BC23757FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testTpr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryComp!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryComp!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.35849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CFD5-4176-A49D-02BC23757FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summaryComp!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testRoc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>summaryComp!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>deepS_cr01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>deepS_cr09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deepS_cr19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>summaryComp!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CFD5-4176-A49D-02BC23757FDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1326473423"/>
+        <c:axId val="887427935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1326473423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887427935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="887427935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1326473423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17528,7 +20181,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors32.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26581,7 +29394,7 @@
 </file>
 
 <file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -26689,6 +29502,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -26699,6 +29517,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -26730,6 +29553,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -27084,7 +29910,7 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -27192,6 +30018,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -27202,6 +30033,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -27233,6 +30069,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -28592,8 +31431,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -28701,11 +31540,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -28716,11 +31550,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -28752,9 +31581,2031 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style31.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style32.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -32533,6 +37384,87 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96CB9BE-9D8E-4C7A-95D0-628A42357785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DAF5D9F-144D-4F10-9D61-E5D5B52C63DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
@@ -32605,7 +37537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -32662,6 +37594,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DCDD08-736F-4C8B-B198-2C800CBF0B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42D7E0B-16BF-47AF-BDE9-A44A1832CDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F32083-2132-4A8C-9781-39AEA6C51B82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33336,7 +38347,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="epimapDeepSea_Processed"/>
+      <sheetName val="epimapDeepSeaChrome19"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -33362,42 +38373,42 @@
         </row>
         <row r="2">
           <cell r="B2">
-            <v>0.42899999999999999</v>
+            <v>0.42699999999999999</v>
           </cell>
           <cell r="E2">
-            <v>0.28199999999999997</v>
+            <v>0.26500000000000001</v>
           </cell>
           <cell r="H2">
-            <v>0.39950000000000002</v>
+            <v>0.49299999999999999</v>
           </cell>
           <cell r="J2">
-            <v>0.1925</v>
+            <v>0.253</v>
           </cell>
           <cell r="K2">
-            <v>0.33350000000000002</v>
+            <v>0.65300000000000002</v>
           </cell>
           <cell r="M2">
-            <v>0.69449999999999901</v>
+            <v>0.755</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.41</v>
+            <v>0.40899999999999997</v>
           </cell>
           <cell r="E3">
-            <v>0.33</v>
+            <v>0.32600000000000001</v>
           </cell>
           <cell r="H3">
-            <v>0.39300000000000002</v>
+            <v>0.496</v>
           </cell>
           <cell r="J3">
-            <v>0.161</v>
+            <v>0.22700000000000001</v>
           </cell>
           <cell r="K3">
-            <v>0.32800000000000001</v>
+            <v>0.56299999999999994</v>
           </cell>
           <cell r="M3">
-            <v>0.72550000000000003</v>
+            <v>0.77100000000000002</v>
           </cell>
         </row>
         <row r="4">
@@ -33405,139 +38416,139 @@
             <v>0.40799999999999997</v>
           </cell>
           <cell r="E4">
-            <v>0.32900000000000001</v>
+            <v>0.32700000000000001</v>
           </cell>
           <cell r="H4">
-            <v>0.38950000000000001</v>
+            <v>0.49399999999999999</v>
           </cell>
           <cell r="J4">
-            <v>0.159</v>
+            <v>0.248</v>
           </cell>
           <cell r="K4">
-            <v>0.3085</v>
+            <v>0.54200000000000004</v>
           </cell>
           <cell r="M4">
-            <v>0.73199999999999998</v>
+            <v>0.78500000000000003</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>0.40600000000000003</v>
+            <v>0.40300000000000002</v>
           </cell>
           <cell r="E5">
-            <v>0.33200000000000002</v>
+            <v>0.33500000000000002</v>
           </cell>
           <cell r="H5">
-            <v>0.38900000000000001</v>
+            <v>0.49099999999999999</v>
           </cell>
           <cell r="J5">
-            <v>0.14449999999999999</v>
+            <v>0.245</v>
           </cell>
           <cell r="K5">
-            <v>0.33200000000000002</v>
+            <v>0.54900000000000004</v>
           </cell>
           <cell r="M5">
-            <v>0.73699999999999999</v>
+            <v>0.79400000000000004</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>0.40300000000000002</v>
+            <v>0.40100000000000002</v>
           </cell>
           <cell r="E6">
             <v>0.34599999999999997</v>
           </cell>
           <cell r="H6">
-            <v>0.38850000000000001</v>
+            <v>0.49199999999999999</v>
           </cell>
           <cell r="J6">
-            <v>0.16950000000000001</v>
+            <v>0.23400000000000001</v>
           </cell>
           <cell r="K6">
-            <v>0.35799999999999998</v>
+            <v>0.56799999999999995</v>
           </cell>
           <cell r="M6">
-            <v>0.74099999999999999</v>
+            <v>0.80400000000000005</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>0.40400000000000003</v>
+            <v>0.40100000000000002</v>
           </cell>
           <cell r="E7">
-            <v>0.35</v>
+            <v>0.34899999999999998</v>
           </cell>
           <cell r="H7">
-            <v>0.38650000000000001</v>
+            <v>0.48899999999999999</v>
           </cell>
           <cell r="J7">
-            <v>0.1615</v>
+            <v>0.246</v>
           </cell>
           <cell r="K7">
-            <v>0.34899999999999998</v>
+            <v>0.56999999999999995</v>
           </cell>
           <cell r="M7">
-            <v>0.74449999999999905</v>
+            <v>0.80300000000000005</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>0.39800000000000002</v>
+            <v>0.40400000000000003</v>
           </cell>
           <cell r="E8">
-            <v>0.35299999999999998</v>
+            <v>0.34599999999999997</v>
           </cell>
           <cell r="H8">
-            <v>0.38800000000000001</v>
+            <v>0.48599999999999999</v>
           </cell>
           <cell r="J8">
-            <v>0.159</v>
+            <v>0.23200000000000001</v>
           </cell>
           <cell r="K8">
-            <v>0.35449999999999998</v>
+            <v>0.58399999999999996</v>
           </cell>
           <cell r="M8">
-            <v>0.74350000000000005</v>
+            <v>0.80100000000000005</v>
           </cell>
         </row>
         <row r="9">
           <cell r="B9">
-            <v>0.40200000000000002</v>
+            <v>0.40100000000000002</v>
           </cell>
           <cell r="E9">
-            <v>0.36099999999999999</v>
+            <v>0.35199999999999998</v>
           </cell>
           <cell r="H9">
-            <v>0.38850000000000001</v>
+            <v>0.49</v>
           </cell>
           <cell r="J9">
-            <v>0.161</v>
+            <v>0.23699999999999999</v>
           </cell>
           <cell r="K9">
-            <v>0.35449999999999998</v>
+            <v>0.56699999999999995</v>
           </cell>
           <cell r="M9">
-            <v>0.74399999999999999</v>
+            <v>0.80100000000000005</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>0.39800000000000002</v>
+            <v>0.4</v>
           </cell>
           <cell r="E10">
-            <v>0.35499999999999998</v>
+            <v>0.35699999999999998</v>
           </cell>
           <cell r="H10">
-            <v>0.38800000000000001</v>
+            <v>0.48899999999999999</v>
           </cell>
           <cell r="J10">
-            <v>0.16300000000000001</v>
+            <v>0.22900000000000001</v>
           </cell>
           <cell r="K10">
-            <v>0.35499999999999998</v>
+            <v>0.57799999999999996</v>
           </cell>
           <cell r="M10">
-            <v>0.74350000000000005</v>
+            <v>0.79900000000000004</v>
           </cell>
         </row>
         <row r="11">
@@ -33545,253 +38556,19 @@
             <v>0.39900000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.35699999999999998</v>
-          </cell>
-          <cell r="H11">
-            <v>0.38800000000000001</v>
-          </cell>
-          <cell r="J11">
-            <v>0.16450000000000001</v>
-          </cell>
-          <cell r="K11">
-            <v>0.35849999999999999</v>
-          </cell>
-          <cell r="M11">
-            <v>0.74350000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="epimapDeepSeaChrome09_Processed"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>trainLoss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>trainTpr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>testLoss</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>testUncer</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>testTpr</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>testRoc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.432</v>
-          </cell>
-          <cell r="E2">
-            <v>0.27900000000000003</v>
-          </cell>
-          <cell r="H2">
-            <v>0.42</v>
-          </cell>
-          <cell r="J2">
-            <v>0.154</v>
-          </cell>
-          <cell r="K2">
-            <v>0.33450000000000002</v>
-          </cell>
-          <cell r="M2">
-            <v>0.76700000000000002</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.41399999999999998</v>
-          </cell>
-          <cell r="E3">
-            <v>0.33100000000000002</v>
-          </cell>
-          <cell r="H3">
-            <v>0.41949999999999998</v>
-          </cell>
-          <cell r="J3">
-            <v>0.17499999999999999</v>
-          </cell>
-          <cell r="K3">
-            <v>0.35949999999999999</v>
-          </cell>
-          <cell r="M3">
-            <v>0.77249999999999996</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>0.34250000000000003</v>
-          </cell>
-          <cell r="H4">
-            <v>0.42299999999999999</v>
-          </cell>
-          <cell r="J4">
-            <v>0.14849999999999999</v>
-          </cell>
-          <cell r="K4">
-            <v>0.34499999999999997</v>
-          </cell>
-          <cell r="M4">
-            <v>0.76800000000000002</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.40500000000000003</v>
-          </cell>
-          <cell r="E5">
-            <v>0.34200000000000003</v>
-          </cell>
-          <cell r="H5">
-            <v>0.41899999999999998</v>
-          </cell>
-          <cell r="J5">
-            <v>0.157</v>
-          </cell>
-          <cell r="K5">
-            <v>0.33900000000000002</v>
-          </cell>
-          <cell r="M5">
-            <v>0.77600000000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.40400000000000003</v>
-          </cell>
-          <cell r="E6">
-            <v>0.35799999999999998</v>
-          </cell>
-          <cell r="H6">
-            <v>0.41299999999999998</v>
-          </cell>
-          <cell r="J6">
-            <v>0.152</v>
-          </cell>
-          <cell r="K6">
-            <v>0.32850000000000001</v>
-          </cell>
-          <cell r="M6">
-            <v>0.78200000000000003</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.39900000000000002</v>
-          </cell>
-          <cell r="E7">
-            <v>0.35599999999999998</v>
-          </cell>
-          <cell r="H7">
-            <v>0.42399999999999999</v>
-          </cell>
-          <cell r="J7">
-            <v>0.14749999999999999</v>
-          </cell>
-          <cell r="K7">
-            <v>0.35799999999999998</v>
-          </cell>
-          <cell r="M7">
-            <v>0.78200000000000003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.40400000000000003</v>
-          </cell>
-          <cell r="E8">
-            <v>0.36699999999999999</v>
-          </cell>
-          <cell r="H8">
-            <v>0.42599999999999999</v>
-          </cell>
-          <cell r="J8">
-            <v>0.15</v>
-          </cell>
-          <cell r="K8">
-            <v>0.36799999999999999</v>
-          </cell>
-          <cell r="M8">
-            <v>0.78200000000000003</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.40400000000000003</v>
-          </cell>
-          <cell r="E9">
-            <v>0.35799999999999998</v>
-          </cell>
-          <cell r="H9">
-            <v>0.41899999999999998</v>
-          </cell>
-          <cell r="J9">
-            <v>0.14599999999999999</v>
-          </cell>
-          <cell r="K9">
-            <v>0.34799999999999998</v>
-          </cell>
-          <cell r="M9">
-            <v>0.78200000000000003</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.40100000000000002</v>
-          </cell>
-          <cell r="E10">
-            <v>0.36449999999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>0.42299999999999999</v>
-          </cell>
-          <cell r="J10">
-            <v>0.152</v>
-          </cell>
-          <cell r="K10">
-            <v>0.36249999999999999</v>
-          </cell>
-          <cell r="M10">
-            <v>0.78149999999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.40300000000000002</v>
-          </cell>
-          <cell r="E11">
             <v>0.36099999999999999</v>
           </cell>
           <cell r="H11">
-            <v>0.42099999999999999</v>
+            <v>0.48799999999999999</v>
           </cell>
           <cell r="J11">
-            <v>0.15</v>
+            <v>0.23100000000000001</v>
           </cell>
           <cell r="K11">
-            <v>0.35799999999999998</v>
+            <v>0.57999999999999996</v>
           </cell>
           <cell r="M11">
-            <v>0.78200000000000003</v>
+            <v>0.8</v>
           </cell>
         </row>
       </sheetData>
@@ -35180,7 +39957,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:M11"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36104,240 +40881,461 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026925B1-A343-4BF5-BE06-4C4D36A4A9CD}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B2612F-5C16-4AEF-96C7-E1F5D383294D}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="H11" sqref="H11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.434</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="C2">
-        <v>0.86599999999999999</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="D2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E2">
-        <v>0.59599999999999997</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F2">
-        <v>0.86299999999999999</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G2">
-        <v>0.77900000000000003</v>
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.253</v>
+      </c>
+      <c r="K2">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.755</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.40450000000000003</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="C3">
-        <v>0.876</v>
+        <v>0.871</v>
       </c>
       <c r="D3">
-        <v>0.108</v>
+        <v>0.16</v>
       </c>
       <c r="E3">
-        <v>0.45850000000000002</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F3">
-        <v>0.91600000000000004</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G3">
-        <v>0.76400000000000001</v>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.496</v>
+      </c>
+      <c r="I3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="L3">
+        <v>0.82</v>
+      </c>
+      <c r="M3">
+        <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.39250000000000002</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="C4">
-        <v>0.873</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D4">
-        <v>0.104</v>
+        <v>0.16</v>
       </c>
       <c r="E4">
-        <v>0.46850000000000003</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="F4">
-        <v>0.92249999999999999</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="G4">
-        <v>0.79800000000000004</v>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.248</v>
+      </c>
+      <c r="K4">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.78500000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.44450000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C5">
-        <v>0.86899999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D5">
-        <v>0.09</v>
+        <v>0.157</v>
       </c>
       <c r="E5">
-        <v>0.55449999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F5">
-        <v>0.878</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="G5">
-        <v>0.76249999999999996</v>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.245</v>
+      </c>
+      <c r="K5">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>0.438</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C6">
-        <v>0.86899999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D6">
-        <v>7.9500000000000001E-2</v>
+        <v>0.156</v>
       </c>
       <c r="E6">
-        <v>0.54</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F6">
-        <v>0.877</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G6">
-        <v>0.80349999999999999</v>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.41799999999999998</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C7">
         <v>0.873</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>0.158</v>
       </c>
       <c r="E7">
-        <v>0.60399999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="F7">
-        <v>0.86749999999999905</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G7">
-        <v>0.75900000000000001</v>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.246</v>
+      </c>
+      <c r="K7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.80300000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>0.437</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="C8">
-        <v>0.85899999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D8">
-        <v>0.10150000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="E8">
-        <v>0.64</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="F8">
-        <v>0.86850000000000005</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G8">
-        <v>0.76149999999999995</v>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="H8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="M8">
+        <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.47099999999999997</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="C9">
-        <v>0.86699999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="D9">
-        <v>8.4000000000000005E-2</v>
+        <v>0.157</v>
       </c>
       <c r="E9">
-        <v>0.52</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="F9">
-        <v>0.88400000000000001</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G9">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.49</v>
+      </c>
+      <c r="I9">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J9">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="L9">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M9">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>0.875</v>
+      </c>
+      <c r="D10">
+        <v>0.157</v>
+      </c>
+      <c r="E10">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M10">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.873</v>
+      </c>
+      <c r="D11">
+        <v>0.156</v>
+      </c>
+      <c r="E11">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.95</v>
+      </c>
+      <c r="G11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I11">
         <v>0.77300000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="G10">
-        <v>0.72899999999999998</v>
+      <c r="J11">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L11">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -36347,11 +41345,254 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026925B1-A343-4BF5-BE06-4C4D36A4A9CD}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.434</v>
+      </c>
+      <c r="C2">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="D2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.876</v>
+      </c>
+      <c r="D3">
+        <v>0.108</v>
+      </c>
+      <c r="E3">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.873</v>
+      </c>
+      <c r="D4">
+        <v>0.104</v>
+      </c>
+      <c r="E4">
+        <v>0.46850000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.09</v>
+      </c>
+      <c r="E5">
+        <v>0.55449999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.878</v>
+      </c>
+      <c r="G5">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.438</v>
+      </c>
+      <c r="C6">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.54</v>
+      </c>
+      <c r="F6">
+        <v>0.877</v>
+      </c>
+      <c r="G6">
+        <v>0.80349999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.873</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.86749999999999905</v>
+      </c>
+      <c r="G7">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.437</v>
+      </c>
+      <c r="C8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.64</v>
+      </c>
+      <c r="F8">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.52</v>
+      </c>
+      <c r="F9">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C1032D-85DB-4E44-B262-2AFD343E1AD9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36454,12 +41695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356B018-0FE6-4F42-9650-4057796C55F9}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36542,10 +41783,29 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
+      <c r="B6">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G6">
+        <v>0.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C0BBA-7966-489A-976D-D177F5EB3C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441677F2-F955-4A95-8C14-FC976998A9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="11" activeTab="16" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <sheet name="summaryCr" sheetId="13" r:id="rId16"/>
     <sheet name="summaryComp" sheetId="16" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -14938,6 +14937,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -15015,6 +15032,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -15092,6 +15127,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -15453,6 +15506,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -15518,6 +15589,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -15583,6 +15672,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -15648,6 +15755,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -15713,6 +15838,24 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -38343,240 +38486,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="epimapDeepSeaChrome19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>trainLoss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>trainTpr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>testLoss</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>testUncer</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>testTpr</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>testRoc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.42699999999999999</v>
-          </cell>
-          <cell r="E2">
-            <v>0.26500000000000001</v>
-          </cell>
-          <cell r="H2">
-            <v>0.49299999999999999</v>
-          </cell>
-          <cell r="J2">
-            <v>0.253</v>
-          </cell>
-          <cell r="K2">
-            <v>0.65300000000000002</v>
-          </cell>
-          <cell r="M2">
-            <v>0.755</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.40899999999999997</v>
-          </cell>
-          <cell r="E3">
-            <v>0.32600000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>0.496</v>
-          </cell>
-          <cell r="J3">
-            <v>0.22700000000000001</v>
-          </cell>
-          <cell r="K3">
-            <v>0.56299999999999994</v>
-          </cell>
-          <cell r="M3">
-            <v>0.77100000000000002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.40799999999999997</v>
-          </cell>
-          <cell r="E4">
-            <v>0.32700000000000001</v>
-          </cell>
-          <cell r="H4">
-            <v>0.49399999999999999</v>
-          </cell>
-          <cell r="J4">
-            <v>0.248</v>
-          </cell>
-          <cell r="K4">
-            <v>0.54200000000000004</v>
-          </cell>
-          <cell r="M4">
-            <v>0.78500000000000003</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.40300000000000002</v>
-          </cell>
-          <cell r="E5">
-            <v>0.33500000000000002</v>
-          </cell>
-          <cell r="H5">
-            <v>0.49099999999999999</v>
-          </cell>
-          <cell r="J5">
-            <v>0.245</v>
-          </cell>
-          <cell r="K5">
-            <v>0.54900000000000004</v>
-          </cell>
-          <cell r="M5">
-            <v>0.79400000000000004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.40100000000000002</v>
-          </cell>
-          <cell r="E6">
-            <v>0.34599999999999997</v>
-          </cell>
-          <cell r="H6">
-            <v>0.49199999999999999</v>
-          </cell>
-          <cell r="J6">
-            <v>0.23400000000000001</v>
-          </cell>
-          <cell r="K6">
-            <v>0.56799999999999995</v>
-          </cell>
-          <cell r="M6">
-            <v>0.80400000000000005</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.40100000000000002</v>
-          </cell>
-          <cell r="E7">
-            <v>0.34899999999999998</v>
-          </cell>
-          <cell r="H7">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="J7">
-            <v>0.246</v>
-          </cell>
-          <cell r="K7">
-            <v>0.56999999999999995</v>
-          </cell>
-          <cell r="M7">
-            <v>0.80300000000000005</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.40400000000000003</v>
-          </cell>
-          <cell r="E8">
-            <v>0.34599999999999997</v>
-          </cell>
-          <cell r="H8">
-            <v>0.48599999999999999</v>
-          </cell>
-          <cell r="J8">
-            <v>0.23200000000000001</v>
-          </cell>
-          <cell r="K8">
-            <v>0.58399999999999996</v>
-          </cell>
-          <cell r="M8">
-            <v>0.80100000000000005</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.40100000000000002</v>
-          </cell>
-          <cell r="E9">
-            <v>0.35199999999999998</v>
-          </cell>
-          <cell r="H9">
-            <v>0.49</v>
-          </cell>
-          <cell r="J9">
-            <v>0.23699999999999999</v>
-          </cell>
-          <cell r="K9">
-            <v>0.56699999999999995</v>
-          </cell>
-          <cell r="M9">
-            <v>0.80100000000000005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.4</v>
-          </cell>
-          <cell r="E10">
-            <v>0.35699999999999998</v>
-          </cell>
-          <cell r="H10">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="J10">
-            <v>0.22900000000000001</v>
-          </cell>
-          <cell r="K10">
-            <v>0.57799999999999996</v>
-          </cell>
-          <cell r="M10">
-            <v>0.79900000000000004</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.39900000000000002</v>
-          </cell>
-          <cell r="E11">
-            <v>0.36099999999999999</v>
-          </cell>
-          <cell r="H11">
-            <v>0.48799999999999999</v>
-          </cell>
-          <cell r="J11">
-            <v>0.23100000000000001</v>
-          </cell>
-          <cell r="K11">
-            <v>0.57999999999999996</v>
-          </cell>
-          <cell r="M11">
-            <v>0.8</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -41700,7 +41609,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC622B-BFCF-4134-8B40-A4DD0F93E26C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60721741-B5FF-4312-A525-79E8BEEC3D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="11" activeTab="18" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="12" activeTab="20" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -32,10 +32,9 @@
     <sheet name="epimapRnn_cr19" sheetId="21" r:id="rId17"/>
     <sheet name="summaryOpt" sheetId="8" r:id="rId18"/>
     <sheet name="summaryComp" sheetId="16" r:id="rId19"/>
+    <sheet name="ttest" sheetId="22" r:id="rId20"/>
+    <sheet name="anova" sheetId="23" r:id="rId21"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId20"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="92">
   <si>
     <t>trainLoss</t>
   </si>
@@ -205,12 +204,138 @@
   <si>
     <t xml:space="preserve">  </t>
   </si>
+  <si>
+    <t>Variable 1</t>
+  </si>
+  <si>
+    <t>Variable 2</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>exp8 vs deepsea t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>alpha = 0.05</t>
+  </si>
+  <si>
+    <t>difference not significant since: P two tail &gt;= alpha (0.05)</t>
+  </si>
+  <si>
+    <t>exp8 vs rnn t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>difference is significant since: P two tail &lt; alpha (0.05)</t>
+  </si>
+  <si>
+    <t>deepsea vs rnn t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>alpha = 0.01</t>
+  </si>
+  <si>
+    <t>difference not significant since: P two tail &gt;= alpha (0.01)</t>
+  </si>
+  <si>
+    <t>difference is significant since: P two tail &lt; alpha (0.01)</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>F &gt; F crit =&gt; reject null hypothesis, at least one mean TPR is different</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +352,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -244,13 +391,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -47006,16 +47185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47043,15 +47222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47081,15 +47260,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47116,16 +47295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47877,240 +48056,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="epimapRnn_cr19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>trainLoss</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>trainTpr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>testLoss</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>1-testUncer</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>testTpr</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>testRoc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>0.504</v>
-          </cell>
-          <cell r="E2">
-            <v>8.2000000000000003E-2</v>
-          </cell>
-          <cell r="H2">
-            <v>0.52600000000000002</v>
-          </cell>
-          <cell r="J2">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K2">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="M2">
-            <v>0.49399999999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.49</v>
-          </cell>
-          <cell r="E3">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J3">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K3">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="M3">
-            <v>0.49399999999999999</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="E4">
-            <v>0.08</v>
-          </cell>
-          <cell r="H4">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J4">
-            <v>0.78700000000000003</v>
-          </cell>
-          <cell r="K4">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="M4">
-            <v>0.495</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.48799999999999999</v>
-          </cell>
-          <cell r="E5">
-            <v>0.08</v>
-          </cell>
-          <cell r="H5">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J5">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K5">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>0.495</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.48799999999999999</v>
-          </cell>
-          <cell r="E6">
-            <v>0.08</v>
-          </cell>
-          <cell r="H6">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J6">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K6">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="M6">
-            <v>0.49199999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.48799999999999999</v>
-          </cell>
-          <cell r="E7">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J7">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K7">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="M7">
-            <v>0.49399999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.48899999999999999</v>
-          </cell>
-          <cell r="E8">
-            <v>0.08</v>
-          </cell>
-          <cell r="H8">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J8">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K8">
-            <v>8.1000000000000003E-2</v>
-          </cell>
-          <cell r="M8">
-            <v>0.49399999999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.48799999999999999</v>
-          </cell>
-          <cell r="E9">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="H9">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J9">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K9">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="M9">
-            <v>0.49399999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.49</v>
-          </cell>
-          <cell r="E10">
-            <v>7.9000000000000001E-2</v>
-          </cell>
-          <cell r="H10">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J10">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K10">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="M10">
-            <v>0.495</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.48499999999999999</v>
-          </cell>
-          <cell r="E11">
-            <v>0.08</v>
-          </cell>
-          <cell r="H11">
-            <v>0.52400000000000002</v>
-          </cell>
-          <cell r="J11">
-            <v>0.79300000000000004</v>
-          </cell>
-          <cell r="K11">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="M11">
-            <v>0.49299999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -52555,10 +52500,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356B018-0FE6-4F42-9650-4057796C55F9}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52566,7 +52511,7 @@
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -52586,12 +52531,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -52614,7 +52559,7 @@
         <v>0.77300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -52637,7 +52582,7 @@
         <v>0.75900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -52660,12 +52605,36 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -52688,7 +52657,7 @@
         <v>0.74350000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -52711,7 +52680,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -52734,12 +52703,36 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -52762,7 +52755,7 @@
         <v>0.4945</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -52785,7 +52778,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -53279,6 +53272,956 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF462BF1-3F0B-4CB2-B93A-7991B7A7083F}">
+  <dimension ref="A1:Z50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.62233333333333329</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.43216666666666664</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.62233333333333329</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.43216666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.9763333333333639E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.6391083333333334E-2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2">
+        <v>8.9763333333333639E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.6391083333333334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.77267751197540513</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.77267751197540513</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.0474482578293944</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.0474482578293944</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.7983859235353514E-2</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.7983859235353514E-2</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.5967718470707029E-2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.5967718470707029E-2</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.62233333333333329</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.4666666666666673E-2</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.62233333333333329</v>
+      </c>
+      <c r="H21" s="2">
+        <v>7.4666666666666673E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8.9763333333333639E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.6033333333333351E-4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8.9763333333333639E-3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1.6033333333333351E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.3531529994428132</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.3531529994428132</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10.41878639094112</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10.41878639094112</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4.5434377641252527E-3</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4.5434377641252527E-3</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.0868755282505053E-3</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9.0868755282505053E-3</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.43216666666666664</v>
+      </c>
+      <c r="C38" s="2">
+        <v>7.4666666666666673E-2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.43216666666666664</v>
+      </c>
+      <c r="H38" s="2">
+        <v>7.4666666666666673E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.6391083333333334E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.6033333333333351E-4</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1.6391083333333334E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.6033333333333351E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-0.32102248828903857</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="2">
+        <v>-0.32102248828903857</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2">
+        <v>4.6684851259817686</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="2">
+        <v>4.6684851259817686</v>
+      </c>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.147417584113347E-2</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2.147417584113347E-2</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.9199855803537269</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6.9645567342832733</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4.294835168226694E-2</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="2">
+        <v>4.294835168226694E-2</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4.3026527297494637</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="3">
+        <v>9.9248432009182928</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376569C3-524D-4834-9E58-FB99610266D1}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.867</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.62233333333333329</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.9763333333333639E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2965</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.43216666666666664</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.6391083333333334E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.224</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.4666666666666673E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.6033333333333351E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.46390838888888891</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.23195419444444446</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27.259064482115875</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9.7453462396347398E-4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.1432528497847176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.1055499999999983E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8.5092499999999977E-3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.51496388888888889</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB849E1-4FF7-4E7C-9E6E-F97EE8DD0ECC}">
   <dimension ref="A1:M11"/>

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60721741-B5FF-4312-A525-79E8BEEC3D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C42B3-6A9D-472C-BC63-0B512D1FA907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="12" activeTab="20" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="12" activeTab="18" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -52502,7 +52502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356B018-0FE6-4F42-9650-4057796C55F9}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:V26"/>
     </sheetView>
   </sheetViews>
@@ -54029,7 +54029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376569C3-524D-4834-9E58-FB99610266D1}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
+++ b/Architecture and parameter search/results/separate/epimap/summaryEpimap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\research\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Research\deepbrain\git\deepBrain\Architecture and parameter search\results\separate\epimap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265C42B3-6A9D-472C-BC63-0B512D1FA907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593DF26-9837-46ED-A2C9-2752940ACA7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="673" firstSheet="12" activeTab="18" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="673" firstSheet="13" activeTab="17" xr2:uid="{449156B2-5CB7-49EB-99A2-741F8BA8F02E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp Description" sheetId="9" r:id="rId1"/>
@@ -15249,24 +15249,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -15368,24 +15350,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -15487,24 +15451,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -15606,24 +15552,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -15725,24 +15653,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryOpt!$A$2:$A$10</c:f>
@@ -16128,24 +16038,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16223,24 +16115,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16318,24 +16192,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16413,24 +16269,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16508,24 +16346,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16603,24 +16423,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16700,24 +16502,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16797,24 +16581,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -16894,24 +16660,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryOpt!$B$1:$E$1,summaryOpt!$G$1)</c:f>
@@ -17273,24 +17021,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -17368,24 +17098,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -17463,24 +17175,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -17842,24 +17536,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$15:$A$17</c:f>
@@ -17925,24 +17601,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$15:$A$17</c:f>
@@ -18008,24 +17666,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$15:$A$17</c:f>
@@ -18091,24 +17731,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$15:$A$17</c:f>
@@ -18174,24 +17796,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$15:$A$17</c:f>
@@ -18541,24 +18145,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -18636,24 +18222,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -18731,24 +18299,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -19110,24 +18660,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -19193,24 +18725,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -19276,24 +18790,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -19359,24 +18855,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -19442,24 +18920,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$4:$A$6</c:f>
@@ -19809,24 +19269,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -19904,24 +19346,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -19999,24 +19423,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>(summaryComp!$B$1:$E$1,summaryComp!$G$1)</c:f>
@@ -20942,24 +20348,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -21025,24 +20413,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -21108,24 +20478,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>summaryComp!$A$28:$A$30</c:f>
@@ -52259,8 +51611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026925B1-A343-4BF5-BE06-4C4D36A4A9CD}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52502,8 +51854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356B018-0FE6-4F42-9650-4057796C55F9}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:V26"/>
+    <sheetView topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
